--- a/Data/model_outputs_baseline/UFA/total_carbon_emissions.xlsx
+++ b/Data/model_outputs_baseline/UFA/total_carbon_emissions.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4163814307.699792</v>
+        <v>4156978671.532725</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3659049867.168288</v>
+        <v>3652992514.13468</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3232884971.602615</v>
+        <v>3227483913.703687</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2868486312.137299</v>
+        <v>2863646217.695547</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2557081930.935052</v>
+        <v>2552721475.827038</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2290227952.40523</v>
+        <v>2286278065.191811</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2060939604.437171</v>
+        <v>2057342226.245364</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1863421188.074109</v>
+        <v>1860127653.175241</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1692851499.541617</v>
+        <v>1689820729.800501</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1545207147.512656</v>
+        <v>1542402989.37669</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1417120062.218066</v>
+        <v>1414512848.28102</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1305763509.801839</v>
+        <v>1303326859.500635</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1208757225.722076</v>
+        <v>1206468804.908778</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1124090869.292765</v>
+        <v>1121931977.400678</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1050063510.666967</v>
+        <v>1048017543.538699</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>985230722.5020651</v>
+        <v>983283763.6860267</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>928362794.241792</v>
+        <v>926502718.3529168</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>878410242.6345881</v>
+        <v>876626344.8111445</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>834474918.5101033</v>
+        <v>832758608.0056276</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>795786681.3593014</v>
+        <v>794130088.7981735</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>761684322.0017762</v>
+        <v>760080546.3904626</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>731596345.1769705</v>
+        <v>730039037.7066711</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>705030286.6983813</v>
+        <v>703512862.6767071</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>681560297.8489997</v>
+        <v>680077516.0042208</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>660814913.5583062</v>
+        <v>659362965.6649536</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>642472906.1515872</v>
+        <v>641048847.3964165</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>626255389.9499806</v>
+        <v>624855773.9080002</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>611918196.4396665</v>
+        <v>610540043.6838291</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>599248352.7015978</v>
+        <v>597889122.3812929</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>588059856.6209127</v>
+        <v>586716819.2914163</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>578188166.6664597</v>
+        <v>576859823.7372313</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>569491250.473573</v>
+        <v>568176656.6988533</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>561842870.3789394</v>
+        <v>560539247.4589653</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>555131764.3217438</v>
+        <v>553838714.9990162</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>549261496.0658234</v>
+        <v>547977409.1919199</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>544145419.4951003</v>
+        <v>542868917.1191015</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>539707573.662173</v>
+        <v>538438640.3157742</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>535881644.5125847</v>
+        <v>534618508.7434245</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>532607015.3844857</v>
+        <v>531349558.9849751</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>529832283.4249184</v>
+        <v>528578876.1160194</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>527510985.8811745</v>
+        <v>526261379.0706227</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>525601385.4146394</v>
+        <v>524354457.891656</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>524067214.2071229</v>
+        <v>522821685.8040702</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>522876157.0923718</v>
+        <v>521632045.4738316</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>521998941.5227255</v>
+        <v>520755987.2240705</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>521410449.3451427</v>
+        <v>520168558.8925952</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>521087932.721162</v>
+        <v>519846226.8202635</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>521009411.512602</v>
+        <v>519768562.9631934</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>521159722.2994772</v>
+        <v>519918894.8543069</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>521522263.0035207</v>
+        <v>520280599.0693438</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>522082534.0192901</v>
+        <v>520840460.9127582</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>522826667.3663992</v>
+        <v>521584743.8872253</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>523745891.9599739</v>
+        <v>522502944.7625029</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>524830446.9583295</v>
+        <v>523584835.8365715</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>526069629.4923017</v>
+        <v>524822708.0491806</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>527456772.2240039</v>
+        <v>526207285.9968773</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>528983534.4312012</v>
+        <v>527732362.2411715</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>530645891.3596619</v>
+        <v>529391532.9828238</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>532438761.7814546</v>
+        <v>531180628.8570119</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>534354857.9021187</v>
+        <v>533094942.9329749</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>536392062.1388255</v>
+        <v>535128791.4625778</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>538546779.8010652</v>
+        <v>537280188.0731764</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>540815980.3257469</v>
+        <v>539545687.806632</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>543195834.3541223</v>
+        <v>541921994.6098864</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>545684117.8122323</v>
+        <v>544405833.7093239</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>548279907.671218</v>
+        <v>546996721.6996794</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>550980606.7433946</v>
+        <v>549693275.7512043</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>553783630.225257</v>
+        <v>552492595.3489661</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>556688631.0462568</v>
+        <v>555394531.5847092</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>559695550.8442031</v>
+        <v>558396928.7184817</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>562802748.0136818</v>
+        <v>561499518.2583597</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>566009046.4667348</v>
+        <v>564702012.3364012</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>569314338.042105</v>
+        <v>568001145.0232253</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>572717373.9801807</v>
+        <v>571399973.6486312</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>576217982.7430668</v>
+        <v>574894926.9838572</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>579815462.9558661</v>
+        <v>578486642.0166603</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>583509536.2615292</v>
+        <v>582175741.8076138</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>587301724.8946599</v>
+        <v>585960789.4198251</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>591189045.8224779</v>
+        <v>589841578.0985172</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>595173697.1532246</v>
+        <v>593819011.1020294</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>599252547.3252633</v>
+        <v>597891033.732868</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>603427353.4886429</v>
+        <v>602060088.5181828</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>607698532.8280468</v>
+        <v>606324173.5926719</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>612063151.678313</v>
+        <v>610682725.1206135</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>616522676.9291968</v>
+        <v>615135227.9539243</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>621078285.1733555</v>
+        <v>619683721.7448772</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>625727647.2329229</v>
+        <v>624325668.4235882</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>630469786.2926313</v>
+        <v>629061407.5605243</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>635307811.8365527</v>
+        <v>633892366.0237912</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>640239716.5852873</v>
+        <v>638817098.8331337</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>645264505.4437159</v>
+        <v>643834521.8350002</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>650381058.5527698</v>
+        <v>648944712.0723164</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>655590959.595338</v>
+        <v>654148294.951221</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>660893622.0028635</v>
+        <v>659443010.4603363</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>666286105.4062796</v>
+        <v>664828539.1430402</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>671770826.0156182</v>
+        <v>670305679.3183707</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>677346559.9432036</v>
+        <v>675873809.5400664</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>683011302.216013</v>
+        <v>681530072.9367784</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>688764547.9228139</v>
+        <v>687275763.8747256</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>694603901.9968237</v>
+        <v>693107604.0106378</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>700532293.5718876</v>
+        <v>699027116.8720539</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>706545320.0660706</v>
+        <v>705032254.7428032</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>712644181.342998</v>
+        <v>711123432.3554192</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>718828219.2058948</v>
+        <v>717298899.7205557</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>725094967.0322691</v>
+        <v>723556703.0251969</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>731444789.1168189</v>
+        <v>729897462.0773939</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>737874562.5532843</v>
+        <v>736319221.8931893</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>744387049.5408647</v>
+        <v>742822095.7782276</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>750977629.13896</v>
+        <v>749402998.7869588</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>757646544.2224367</v>
+        <v>756062415.8946009</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>764391426.8633546</v>
+        <v>762796680.0542802</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>771212853.3759183</v>
+        <v>769608282.8148788</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>778107698.3050461</v>
+        <v>776494373.4485873</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>785076990.964066</v>
+        <v>783453436.23449</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>792119751.8315704</v>
+        <v>790486524.0012951</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>799234524.5357782</v>
+        <v>797589982.9736762</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>806418795.9925072</v>
+        <v>804765176.0607601</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>813674458.9737284</v>
+        <v>812010703.7371144</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>820998512.2430633</v>
+        <v>819323396.3216794</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>828389671.2300171</v>
+        <v>826704420.1165322</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>835847769.234069</v>
+        <v>834152489.8343996</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>843372558.0524532</v>
+        <v>841666674.0138271</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>850961625.5445769</v>
+        <v>849246380.7060901</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>858616176.1757535</v>
+        <v>856890927.968325</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>866336008.0313526</v>
+        <v>864600671.8186357</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>874119177.6633085</v>
+        <v>872375253.8929206</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>881967418.3926125</v>
+        <v>880214303.0027503</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>889880887.1599596</v>
+        <v>888117277.3365965</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>897858542.3933784</v>
+        <v>896084487.619194</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>905900570.7530389</v>
+        <v>904116826.7022849</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>914006759.8074645</v>
+        <v>912213122.4563481</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>922179579.920772</v>
+        <v>920375518.6528906</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>930417315.1090338</v>
+        <v>928603136.4826596</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>938722763.3235065</v>
+        <v>936897228.5503417</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>947097230.209367</v>
+        <v>945260602.2590313</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>955541472.9295977</v>
+        <v>953693859.3007883</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>964056136.8231956</v>
+        <v>962198536.6649866</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>972645900.5487294</v>
+        <v>970776643.9413148</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>981310229.1546208</v>
+        <v>979430333.5465511</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>990053016.5422503</v>
+        <v>988161037.823148</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>998876746.7228293</v>
+        <v>996971886.1957777</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1007783663.281334</v>
+        <v>1005864834.577195</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1016775931.910827</v>
+        <v>1014840996.407559</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1025857033.707986</v>
+        <v>1023906082.970854</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1035033394.818817</v>
+        <v>1033063733.564204</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1044307155.347474</v>
+        <v>1042318846.08309</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1053682105.466821</v>
+        <v>1051677829.831351</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1063164221.623641</v>
+        <v>1061145294.08121</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1072756983.118883</v>
+        <v>1070723902.25732</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1082466831.522742</v>
+        <v>1080418855.844627</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1092298524.218248</v>
+        <v>1090235710.742285</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1102258311.395231</v>
+        <v>1100180758.719241</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1112351403.119161</v>
+        <v>1110259690.850933</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1122585647.008646</v>
+        <v>1120479796.142924</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1132967664.425738</v>
+        <v>1130847124.598273</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1143506084.845503</v>
+        <v>1141370655.108994</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1154206711.090629</v>
+        <v>1152055466.264877</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1165077295.071457</v>
+        <v>1162912505.473291</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1176124615.263017</v>
+        <v>1173947656.682511</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1187357596.6233</v>
+        <v>1185169729.984143</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1198787701.252086</v>
+        <v>1196587847.422453</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1210423662.983978</v>
+        <v>1208211776.060252</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1222277175.908134</v>
+        <v>1220050960.041431</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1234356752.584883</v>
+        <v>1232115775.037839</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1246672419.91609</v>
+        <v>1244415864.41906</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1259236070.989366</v>
+        <v>1256961202.423554</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1272057255.054892</v>
+        <v>1269764516.885297</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1285146711.05118</v>
+        <v>1282835639.425137</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1298514605.877409</v>
+        <v>1296185677.601366</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1312173752.970498</v>
+        <v>1309826550.2709</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1326136827.729787</v>
+        <v>1323770226.212247</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1340416385.756301</v>
+        <v>1338029495.183464</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1355022793.877452</v>
+        <v>1352615967.051849</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1369969967.547904</v>
+        <v>1367541534.620284</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1385270431.442399</v>
+        <v>1382820801.818435</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1400936162.310935</v>
+        <v>1398464955.296546</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1416981318.695061</v>
+        <v>1414488195.724177</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1433419065.76967</v>
+        <v>1430902704.770763</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1450263618.0231</v>
+        <v>1447722999.036743</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1467526962.82179</v>
+        <v>1464960884.33757</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1485222479.993804</v>
+        <v>1482632318.069494</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1503364272.826873</v>
+        <v>1500749875.384035</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1521965974.544575</v>
+        <v>1519325066.556732</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1541041047.862114</v>
+        <v>1538373148.093978</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1560604064.693598</v>
+        <v>1557907959.099256</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1580666654.128914</v>
+        <v>1577941697.30169</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1601243172.020011</v>
+        <v>1598488618.606105</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1622344768.899635</v>
+        <v>1619561626.743896</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1643988128.178754</v>
+        <v>1641174952.649339</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1666184678.352745</v>
+        <v>1663340744.206636</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1688947761.681471</v>
+        <v>1686072212.70168</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1712290955.820762</v>
+        <v>1709382030.104236</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1736226126.460084</v>
+        <v>1733283428.975729</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1760766829.591756</v>
+        <v>1757788454.306408</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1785923331.870225</v>
+        <v>1782910205.674679</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1811709770.084909</v>
+        <v>1808660020.310853</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1838136490.121285</v>
+        <v>1835050262.824273</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1865216886.235258</v>
+        <v>1862092856.307287</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1892961605.239202</v>
+        <v>1889799238.365453</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1921383378.955009</v>
+        <v>1918180265.598339</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1950490552.618842</v>
+        <v>1947247676.201279</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1980296960.346652</v>
+        <v>1977011559.978438</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2010809643.811213</v>
+        <v>2007481563.120223</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2042041371.176819</v>
+        <v>2038669696.037221</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2074000991.570738</v>
+        <v>2070584767.292412</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2106700011.519604</v>
+        <v>2103237407.065846</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2140145315.371962</v>
+        <v>2136635279.623405</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2174346566.352147</v>
+        <v>2170789390.15163</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2209313995.061213</v>
+        <v>2205709512.335716</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2245056442.226929</v>
+        <v>2241403287.224948</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2281582059.656527</v>
+        <v>2277879614.951913</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2318899390.418029</v>
+        <v>2315145040.833572</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2357016077.464216</v>
+        <v>2353208636.301135</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2395939244.635711</v>
+        <v>2392076940.697762</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2435677722.387544</v>
+        <v>2431759197.445289</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2476237605.968187</v>
+        <v>2472264234.080392</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2517627139.404949</v>
+        <v>2513597504.932862</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2559853882.566024</v>
+        <v>2555766351.007081</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2602923388.641738</v>
+        <v>2598776944.458457</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2646842551.685836</v>
+        <v>2642636999.108847</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2691617895.77358</v>
+        <v>2687351977.665399</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2737254971.895339</v>
+        <v>2732928182.962785</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2783762647.777818</v>
+        <v>2779372707.22476</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2831145732.077589</v>
+        <v>2826690657.965992</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2879409242.369605</v>
+        <v>2874888999.334057</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2928560360.536983</v>
+        <v>2923972130.632641</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2978605123.635381</v>
+        <v>2973947163.483899</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3029548001.37989</v>
+        <v>3024818475.852039</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3081394756.185867</v>
+        <v>3076593162.681356</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3134151351.540257</v>
+        <v>3129275898.001913</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3187823163.433402</v>
+        <v>3182873502.506265</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>3242413348.899843</v>
+        <v>3237389032.299193</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>3297929577.651705</v>
+        <v>3292829849.153121</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>3354375032.960684</v>
+        <v>3349198778.233536</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>3411756534.245649</v>
+        <v>3406505314.733116</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>3470081866.533729</v>
+        <v>3464752115.305346</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>3529352061.915043</v>
+        <v>3523944763.505775</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>3589575183.14058</v>
+        <v>3584088458.446681</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>3650753631.57362</v>
+        <v>3645186398.388289</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>3712896833.472757</v>
+        <v>3707246010.180952</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>3776005809.610769</v>
+        <v>3770272207.162061</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>3840089044.274578</v>
+        <v>3834270006.515969</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>3905150641.225404</v>
+        <v>3899246229.697186</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>3971194824.948146</v>
+        <v>3965204108.956974</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>4038230805.131465</v>
+        <v>4032150375.274726</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4106259917.855313</v>
+        <v>4100090631.679876</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4175292036.621506</v>
+        <v>4169031720.74929</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4245328836.253807</v>
+        <v>4238977140.065915</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4316378631.876098</v>
+        <v>4309932822.081151</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>4388447643.746604</v>
+        <v>4381905613.343024</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>4461541918.207956</v>
+        <v>4454901261.840425</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>4535667161.693377</v>
+        <v>4528926479.078917</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>4610829676.981656</v>
+        <v>4603988030.699262</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>4687037451.343046</v>
+        <v>4680092723.889654</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>4764295726.45494</v>
+        <v>4757245006.035286</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>4842611916.418221</v>
+        <v>4835453906.423774</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>4921992452.267153</v>
+        <v>4914726026.47049</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5002441967.525923</v>
+        <v>4995067278.664211</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5083974720.442094</v>
+        <v>5076487998.980486</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>5166591026.599895</v>
+        <v>5158995447.140261</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5250301290.519923</v>
+        <v>5242596311.402805</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5335114365.508886</v>
+        <v>5327296802.956029</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5421040059.344644</v>
+        <v>5413108363.036847</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5508085619.938827</v>
+        <v>5500037896.75355</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>5596258083.478718</v>
+        <v>5588094040.422037</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>5685569294.863229</v>
+        <v>5677285118.480418</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5776022791.33425</v>
+        <v>5767618689.06849</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5867634363.659233</v>
+        <v>5859105631.736363</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5960412442.916319</v>
+        <v>5951756873.971611</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>6054365056.941095</v>
+        <v>6045583567.86296</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>6149503654.41282</v>
+        <v>6140592292.209397</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>6245837831.296945</v>
+        <v>6236798913.991508</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>6343379718.664342</v>
+        <v>6334208576.28723</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>6442140477.45542</v>
+        <v>6432837009.653411</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>6542131869.46092</v>
+        <v>6532691753.570559</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6643364575.174973</v>
+        <v>6633786697.591328</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>6745848897.849091</v>
+        <v>6736136047.917051</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>6849598881.062823</v>
+        <v>6839750676.231864</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>6954629874.322411</v>
+        <v>6944640433.214396</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7060952810.641563</v>
+        <v>7050821009.273866</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>7168580101.464592</v>
+        <v>7158304925.417775</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>7277527749.174905</v>
+        <v>7267108401.804944</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>7387808073.753957</v>
+        <v>7377244426.894254</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>7499436407.858931</v>
+        <v>7488726421.3116</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>7612427118.401848</v>
+        <v>7601570011.974853</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>7726795642.318133</v>
+        <v>7715790599.763545</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>7842559700.964532</v>
+        <v>7831401127.708824</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>7959734259.490962</v>
+        <v>7948420987.377093</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>8078331116.645855</v>
+        <v>8066866060.212383</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>8198374336.470858</v>
+        <v>8186750553.491045</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>8319874094.445027</v>
+        <v>8308093777.200482</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>8442852474.53237</v>
+        <v>8430911510.794392</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>8567324174.119982</v>
+        <v>8555223396.107612</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>8693309333.797293</v>
+        <v>8681045811.891375</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>8820827098.374361</v>
+        <v>8808396839.899406</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>8949894744.1835</v>
+        <v>8937297624.838072</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>9080532010.493948</v>
+        <v>9067762941.817448</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>9212759376.400505</v>
+        <v>9199818588.838844</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>9346592834.525444</v>
+        <v>9333478625.534899</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>9482053371.616804</v>
+        <v>9468766090.590662</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>9619164172.971601</v>
+        <v>9605700924.646345</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>9725152860.937363</v>
+        <v>9715030945.358261</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>9832506486.715408</v>
+        <v>9825757324.355959</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>9941221803.888687</v>
+        <v>9937884194.879566</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>10051325802.86034</v>
+        <v>10051433805.79309</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>10162833468.79763</v>
+        <v>10166425000.98166</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>10275759522.13413</v>
+        <v>10282874072.80782</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>10390122305.53798</v>
+        <v>10400794637.07828</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>10505939338.75166</v>
+        <v>10520210217.93771</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>10623226256.16978</v>
+        <v>10641132945.15104</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>10742002002.68438</v>
+        <v>10763583909.9003</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>10862282933.56863</v>
+        <v>10887580570.57588</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>10984084813.12247</v>
+        <v>11013139031.70308</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>11107425132.23446</v>
+        <v>11140278563.64716</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>11232324209.89363</v>
+        <v>11269018417.54694</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>11358795631.40752</v>
+        <v>11399375365.50887</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>11486859598.54897</v>
+        <v>11531367078.29554</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>11616532123.3369</v>
+        <v>11665011702.57069</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>11747831032.8217</v>
+        <v>11800326843.66115</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>11880774192.07689</v>
+        <v>11937330472.71665</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>12015379070.69159</v>
+        <v>12076040338.2498</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>12151662487.31413</v>
+        <v>12216473613.19875</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>12289638870.55184</v>
+        <v>12358649257.03135</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>12429325697.30898</v>
+        <v>12502582078.07193</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>12570739116.03189</v>
+        <v>12648290474.27298</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>12713896509.42427</v>
+        <v>12795790555.16594</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>12858812458.79642</v>
+        <v>12945094036.76513</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>13005500857.9251</v>
+        <v>13096218672.38558</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>13153976790.85608</v>
+        <v>13249182993.25442</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>13304254629.36697</v>
+        <v>13403996247.11726</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>13456349467.81352</v>
+        <v>13560674155.53918</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>13610270514.38968</v>
+        <v>13719233773.76266</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>13766033718.70569</v>
+        <v>13879681901.87575</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>13923648275.45448</v>
+        <v>14042033774.2118</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>14083123776.83584</v>
+        <v>14206299344.65928</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>14244472495.15604</v>
+        <v>14372489569.83554</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>14407704814.04109</v>
+        <v>14540611535.25066</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>14572825512.1105</v>
+        <v>14710677023.65932</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>14739845825.01432</v>
+        <v>14882692563.8123</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>14908770545.90993</v>
+        <v>15056665146.73859</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>15079603385.78649</v>
+        <v>15232597227.52981</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>15252351029.62825</v>
+        <v>15410496587.14927</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>15427012743.74381</v>
+        <v>15590363561.45938</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>15603593429.84123</v>
+        <v>15772203354.62319</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>15782090727.58558</v>
+        <v>15956012226.38323</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>15962506611.33644</v>
+        <v>16141789906.35766</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>16144836488.79073</v>
+        <v>16329539764.31412</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>16329080157.00305</v>
+        <v>16519253619.19573</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>16515230750.59378</v>
+        <v>16710924058.27015</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>16703280578.3589</v>
+        <v>16904547049.23925</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>16893223515.56841</v>
+        <v>17100117932.50839</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>17085051233.20243</v>
+        <v>17297620439.22309</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>17278750130.91311</v>
+        <v>17497048318.44896</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>17474307855.52828</v>
+        <v>17698385791.42813</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>17671708192.99123</v>
+        <v>17901618566.13439</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>17870936582.54111</v>
+        <v>18106725030.0566</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>18059033602.63449</v>
+        <v>18302621932.03304</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>18248805139.28582</v>
+        <v>18500258773.75232</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>18440230437.20924</v>
+        <v>18699614774.8926</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>18633286506.05188</v>
+        <v>18900661961.21976</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>18827949308.22227</v>
+        <v>19103379953.75732</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>19024190553.74168</v>
+        <v>19307737078.10009</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>19221985243.06686</v>
+        <v>19513706833.23155</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>19421299807.15838</v>
+        <v>19721255552.66724</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>19622101951.93214</v>
+        <v>19930350023.56545</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>19824358484.62915</v>
+        <v>20140954879.97605</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>20028035348.37317</v>
+        <v>20353035289.64243</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>20233091072.71923</v>
+        <v>20566549505.6766</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>20439491688.98461</v>
+        <v>20781458642.23322</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>20647190423.52269</v>
+        <v>20997720627.22359</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>20856145674.97125</v>
+        <v>21215287329.95247</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>21057084899.83835</v>
+        <v>21422041281.63069</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>21259124404.42765</v>
+        <v>21629927919.22651</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>21462214306.95141</v>
+        <v>21838893598.56652</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>21666742697.9043</v>
+        <v>22049331510.44092</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>21872209937.05301</v>
+        <v>22260735955.78144</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>22078564728.14438</v>
+        <v>22473051721.58791</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>22285752754.12611</v>
+        <v>22686222265.22883</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>22493718189.60857</v>
+        <v>22900191858.39236</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>22702405005.18123</v>
+        <v>23114902554.6407</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>22911754799.37231</v>
+        <v>23330295794.20359</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>23161247052.93351</v>
+        <v>23575840828.542</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>23411444856.3149</v>
+        <v>23822074352.03366</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>23662277696.04073</v>
+        <v>24068927004.59596</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>23913678051.53449</v>
+        <v>24316328096.07731</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>24165572579.00119</v>
+        <v>24564206661.18985</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>24417887573.54464</v>
+        <v>24812489421.81679</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>24669810764.51881</v>
+        <v>25060350842.52387</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>24913287594.45488</v>
+        <v>25299610555.23189</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>25127772678.13996</v>
+        <v>25509403396.09836</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>25289245908.3742</v>
+        <v>25665347386.76749</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>25389815017.01623</v>
+        <v>25769686304.23574</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>25415211715.2781</v>
+        <v>25797640476.52405</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>25371416584.39995</v>
+        <v>25755269057.30241</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>25271130840.80672</v>
+        <v>25655458414.52686</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>25129816301.46162</v>
+        <v>25513903157.33206</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>24962837725.9689</v>
+        <v>25346203088.97377</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>24783790671.20695</v>
+        <v>25166168024.46939</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>24603763852.02586</v>
+        <v>24985066721.44946</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>24431212695.02547</v>
+        <v>24811494059.42924</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>24272161816.17133</v>
+        <v>24651572531.87463</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>23971387084.06908</v>
+        <v>24331656271.67204</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>23698696036.95192</v>
+        <v>24040232924.3254</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>23454513099.62794</v>
+        <v>23777736793.95078</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>23238247496.50462</v>
+        <v>23543576516.73244</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>23048625718.41085</v>
+        <v>23336463168.14186</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>22883939556.35402</v>
+        <v>23154664943.51215</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>22742241744.11952</v>
+        <v>22996212754.72939</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>22621485706.35684</v>
+        <v>22859025568.62587</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>22519615207.25815</v>
+        <v>22741020942.43136</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>22434635825.3852</v>
+        <v>22640176345.07122</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>22368579080.98426</v>
+        <v>22550682608.21131</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>22310183280.0587</v>
+        <v>22470321568.19096</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>22258812065.54062</v>
+        <v>22398252617.4468</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>22213565187.03775</v>
+        <v>22333422167.88255</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>22173618837.20707</v>
+        <v>22274864321.90269</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>22138225704.8891</v>
+        <v>22221703988.68779</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>22104262851.54936</v>
+        <v>22170709704.61701</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>22044866469.46798</v>
+        <v>22094901935.56551</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>21893278939.26343</v>
+        <v>21927487226.98531</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>21573587882.45783</v>
+        <v>21592693292.03848</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>21038511488.87809</v>
+        <v>21043510797.90392</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>20282129129.22757</v>
+        <v>20274306958.00422</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>19332207565.29825</v>
+        <v>19313058578.54102</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>18235570072.02683</v>
+        <v>18206691141.65997</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>17044911541.95856</v>
+        <v>17007898113.11482</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>15809940519.51082</v>
+        <v>15766310855.23936</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>14572682156.74213</v>
+        <v>14523821611.24232</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>13365816333.33133</v>
+        <v>13312954044.77292</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>12212867234.11091</v>
+        <v>12157065889.6186</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>11129330954.15759</v>
+        <v>11071494117.03185</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>10124160521.72617</v>
+        <v>10065044772.54815</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>9201269820.737741</v>
+        <v>9141494249.225052</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>8360859127.243939</v>
+        <v>8300928128.426211</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>7600538367.175816</v>
+        <v>7540855422.019119</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>6916212348.909499</v>
+        <v>6857094791.94348</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>6302766885.464737</v>
+        <v>6244459404.577703</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>5754554795.901465</v>
+        <v>5697243639.581085</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>5265764980.548613</v>
+        <v>5209587339.331733</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>4830665496.223788</v>
+        <v>4775715548.183039</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>4443760597.61042</v>
+        <v>4390103636.91728</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>4099893987.989013</v>
+        <v>4047568838.07073</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>3794304403.970534</v>
+        <v>3743324167.516074</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>3522643357.229909</v>
+        <v>3473007116.701972</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>3280978179.981399</v>
+        <v>3232671508.255742</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>3065779701.334637</v>
+        <v>3018775251.057388</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>2873894616.144223</v>
+        <v>2828158420.635546</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>2702518307.213003</v>
+        <v>2658014606.637844</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>2549172604.69366</v>
+        <v>2505858150.031109</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>2411671389.031613</v>
+        <v>2369500766.262842</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>224897520.2722871</v>
+        <v>206744687.1695376</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/total_carbon_emissions.xlsx
+++ b/Data/model_outputs_baseline/UFA/total_carbon_emissions.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4156978671.532725</v>
+        <v>2286338496.929986</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3652992514.13468</v>
+        <v>2009146135.996705</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3227483913.703687</v>
+        <v>1775116908.94161</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2863646217.695547</v>
+        <v>1575006818.877289</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2552721475.827038</v>
+        <v>1403998860.932899</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2286278065.191811</v>
+        <v>1257455243.38861</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2057342226.245364</v>
+        <v>1131541031.283004</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1860127653.175241</v>
+        <v>1023073800.908196</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1689820729.800501</v>
+        <v>929405712.2410778</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1542402989.37669</v>
+        <v>848327045.0858725</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1414512848.28102</v>
+        <v>777989048.184695</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1303326859.500635</v>
+        <v>716837834.6585385</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1206468804.908778</v>
+        <v>663566498.4993231</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1121931977.400678</v>
+        <v>617071637.7239989</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1048017543.538699</v>
+        <v>576419810.3565155</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>983283763.6860267</v>
+        <v>540817383.0198354</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>926502718.3529168</v>
+        <v>509589567.1527905</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>876626344.8111445</v>
+        <v>482158876.2617155</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>832758608.0056276</v>
+        <v>458032295.1402858</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>794130088.7981735</v>
+        <v>436788134.4641571</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>760080546.3904626</v>
+        <v>418062045.2968555</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>730039037.7066711</v>
+        <v>401540136.3951338</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>703512862.6767071</v>
+        <v>386952774.2244012</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>680077516.0042208</v>
+        <v>374064115.2299606</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>659362965.6649536</v>
+        <v>362672580.5530112</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>641048847.3964165</v>
+        <v>352601429.796073</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>624855773.9080002</v>
+        <v>343697520.3905946</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>610540043.6838291</v>
+        <v>335826034.7488442</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>597889122.3812929</v>
+        <v>328870526.0158029</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>586716819.2914163</v>
+        <v>322728774.9662346</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>576859823.7372313</v>
+        <v>317309875.7994491</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>568176656.6988533</v>
+        <v>312536029.5524167</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>560539247.4589653</v>
+        <v>308337671.9116107</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>553838714.9990162</v>
+        <v>304654176.1438454</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>547977409.1919199</v>
+        <v>301431862.4515139</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>542868917.1191015</v>
+        <v>298624260.1457641</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>538438640.3157742</v>
+        <v>296188770.4968289</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>534618508.7434245</v>
+        <v>294089737.1649563</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>531349558.9849751</v>
+        <v>292293468.6619277</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>528578876.1160194</v>
+        <v>290771432.948104</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>526261379.0706227</v>
+        <v>289498041.7325018</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>524354457.891656</v>
+        <v>288450648.6513124</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>522821685.8040702</v>
+        <v>287609533.1077843</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>521632045.4738316</v>
+        <v>286957665.9734444</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>520755987.2240705</v>
+        <v>286478139.7495475</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>520168558.8925952</v>
+        <v>286156827.4939424</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>519846226.8202635</v>
+        <v>285981095.8201952</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>519768562.9631934</v>
+        <v>285941141.4009287</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>519918894.8543069</v>
+        <v>286025796.9944894</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>520280599.0693438</v>
+        <v>286227635.0458345</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>520840460.9127582</v>
+        <v>286536831.4424909</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>521584743.8872253</v>
+        <v>286948260.4444612</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>522502944.7625029</v>
+        <v>287456376.8532531</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>523584835.8365715</v>
+        <v>288054688.9236313</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>524822708.0491806</v>
+        <v>288738553.588829</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>526207285.9968773</v>
+        <v>289501941.3710391</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>527732362.2411715</v>
+        <v>290344225.4404312</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>529391532.9828238</v>
+        <v>291260245.8812354</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>531180628.8570119</v>
+        <v>292247476.4515378</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>533094942.9329749</v>
+        <v>293303330.3431367</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>535128791.4625778</v>
+        <v>294425720.6134266</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>537280188.0731764</v>
+        <v>295613815.6977115</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>539545687.806632</v>
+        <v>296862557.50011</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>541921994.6098864</v>
+        <v>298172678.1564234</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>544405833.7093239</v>
+        <v>299542999.7645383</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>546996721.6996794</v>
+        <v>300971100.3425496</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>549693275.7512043</v>
+        <v>302457745.9715847</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>552492595.3489661</v>
+        <v>304001424.7434282</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>555394531.5847092</v>
+        <v>305599954.891067</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>558396928.7184817</v>
+        <v>307254486.3144693</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>561499518.2583597</v>
+        <v>308963749.9132866</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>564702012.3364012</v>
+        <v>310727023.6319166</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>568001145.0232253</v>
+        <v>312544818.9642</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>571399973.6486312</v>
+        <v>314417274.9067807</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>574894926.9838572</v>
+        <v>316342798.2792841</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>578486642.0166603</v>
+        <v>318321771.7361087</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>582175741.8076138</v>
+        <v>320354230.083385</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>585960789.4198251</v>
+        <v>322438731.9921907</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>589841578.0985172</v>
+        <v>324576521.2976389</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>593819011.1020294</v>
+        <v>326767230.2116168</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>597891033.732868</v>
+        <v>329009629.2511192</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>602060088.5181828</v>
+        <v>331304377.073425</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>606324173.5926719</v>
+        <v>333651038.5240252</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>610682725.1206135</v>
+        <v>336050455.4980946</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>615135227.9539243</v>
+        <v>338502099.9962955</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>619683721.7448772</v>
+        <v>341005767.992051</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>624325668.4235882</v>
+        <v>343561084.8775692</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>629061407.5605243</v>
+        <v>346168625.2150624</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>633892366.0237912</v>
+        <v>348827381.877975</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>638817098.8331337</v>
+        <v>351537505.7468308</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>643834521.8350002</v>
+        <v>354299495.336427</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>648944712.0723164</v>
+        <v>357112112.2137931</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>654148294.951221</v>
+        <v>359975756.6673006</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>659443010.4603363</v>
+        <v>362890179.8336542</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>664828539.1430402</v>
+        <v>365853945.9101863</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>670305679.3183707</v>
+        <v>368869304.079973</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>675873809.5400664</v>
+        <v>371932951.108856</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>681530072.9367784</v>
+        <v>375046703.0365399</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>687275763.8747256</v>
+        <v>378208837.211656</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>693107604.0106378</v>
+        <v>381419190.7855444</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>699027116.8720539</v>
+        <v>384676465.5258878</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>705032254.7428032</v>
+        <v>387983090.3874394</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>711123432.3554192</v>
+        <v>391334863.2375861</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>717298899.7205557</v>
+        <v>394732760.2944007</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>723556703.0251969</v>
+        <v>398176808.1196833</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>729897462.0773939</v>
+        <v>401666764.9970574</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>736319221.8931893</v>
+        <v>405199818.4567045</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>742822095.7782276</v>
+        <v>408778169.2004458</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>749402998.7869588</v>
+        <v>412398934.8378403</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>756062415.8946009</v>
+        <v>416063045.8785264</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>762796680.0542802</v>
+        <v>419768859.2643089</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>769608282.8148788</v>
+        <v>423515750.3022306</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>776494373.4485873</v>
+        <v>427303831.5878636</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>783453436.23449</v>
+        <v>431133094.4890444</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>790486524.0012951</v>
+        <v>435002543.2370232</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>797589982.9736762</v>
+        <v>438910550.6107254</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>804765176.0607601</v>
+        <v>442858258.5037793</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>812010703.7371144</v>
+        <v>446843772.5918885</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>819323396.3216794</v>
+        <v>450867661.1269386</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>826704420.1165322</v>
+        <v>454928880.9538567</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>834152489.8343996</v>
+        <v>459026909.5036792</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>841666674.0138271</v>
+        <v>463162091.4084561</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>849246380.7060901</v>
+        <v>467333409.9432367</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>856890927.968325</v>
+        <v>471540477.9751906</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>864600671.8186357</v>
+        <v>475781954.5906569</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>872375253.8929206</v>
+        <v>480058674.7843654</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>880214303.0027503</v>
+        <v>484371427.831974</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>888117277.3365965</v>
+        <v>488718159.436987</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>896084487.619194</v>
+        <v>493101739.0622803</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>904116826.7022849</v>
+        <v>497521353.6683927</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>912213122.4563481</v>
+        <v>501974662.7564991</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>920375518.6528906</v>
+        <v>506465301.3395448</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>928603136.4826596</v>
+        <v>510992615.2851741</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>936897228.5503417</v>
+        <v>515557011.4096364</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>945260602.2590313</v>
+        <v>520159514.717925</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>953693859.3007883</v>
+        <v>524799564.6501233</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>962198536.6649866</v>
+        <v>529478813.2561171</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>970776643.9413148</v>
+        <v>534198161.7488447</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>979430333.5465511</v>
+        <v>538959483.8044857</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>988161037.823148</v>
+        <v>543762537.5085847</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>996971886.1957777</v>
+        <v>548610072.2513002</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1005864834.577195</v>
+        <v>553503024.9764286</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1014840996.407559</v>
+        <v>558443367.0430115</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1023906082.970854</v>
+        <v>563434700.9395107</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1033063733.564204</v>
+        <v>568475951.241014</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1042318846.08309</v>
+        <v>573571860.2425526</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1051677829.831351</v>
+        <v>578723034.0376263</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1061145294.08121</v>
+        <v>583932460.2748293</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1070723902.25732</v>
+        <v>589203701.1000499</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1080418855.844627</v>
+        <v>594538287.0877793</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1090235710.742285</v>
+        <v>599940052.2160535</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1100180758.719241</v>
+        <v>605412270.3078963</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1110259690.850933</v>
+        <v>610959567.8291506</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1120479796.142924</v>
+        <v>616584297.4898288</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1130847124.598273</v>
+        <v>622289384.2076993</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1141370655.108994</v>
+        <v>628079813.9932127</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1152055466.264877</v>
+        <v>633960822.7550787</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1162912505.473291</v>
+        <v>639935098.1735495</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1173947656.682511</v>
+        <v>646007511.2616571</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1185169729.984143</v>
+        <v>652182637.1950854</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1196587847.422453</v>
+        <v>658465203.862504</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1208211776.060252</v>
+        <v>664862266.8376652</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1220050960.041431</v>
+        <v>671378005.0965248</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1232115775.037839</v>
+        <v>678016234.3221351</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1244415864.41906</v>
+        <v>684785350.2752142</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1256961202.423554</v>
+        <v>691688816.8998394</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1269764516.885297</v>
+        <v>698734097.392334</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1282835639.425137</v>
+        <v>705927444.383827</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1296185677.601366</v>
+        <v>713273754.5880859</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1309826550.2709</v>
+        <v>720778079.0221132</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1323770226.212247</v>
+        <v>728447441.2210337</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1338029495.183464</v>
+        <v>736290121.0226812</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1352615967.051849</v>
+        <v>744311191.5943458</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1367541534.620284</v>
+        <v>752521117.1913049</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1382820801.818435</v>
+        <v>760925981.84512</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1398464955.296546</v>
+        <v>769533384.0287538</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1414488195.724177</v>
+        <v>778349820.3671112</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1430902704.770763</v>
+        <v>787381036.0962608</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1447722999.036743</v>
+        <v>796636187.9471495</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1464960884.33757</v>
+        <v>806121632.9273283</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1482632318.069494</v>
+        <v>815844093.8853093</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1500749875.384035</v>
+        <v>825812088.74145</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1519325066.556732</v>
+        <v>836032794.6575062</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1538373148.093978</v>
+        <v>846513871.001839</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1557907959.099256</v>
+        <v>857262610.5285426</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1577941697.30169</v>
+        <v>868285771.340956</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1598488618.606105</v>
+        <v>879591585.6114419</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1619561626.743896</v>
+        <v>891186283.6804272</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1641174952.649339</v>
+        <v>903077376.2021645</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1663340744.206636</v>
+        <v>915273759.1230408</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1686072212.70168</v>
+        <v>927780602.9750016</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1709382030.104236</v>
+        <v>940606080.3748827</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1733283428.975729</v>
+        <v>953757540.7674208</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1757788454.306408</v>
+        <v>967240360.8905282</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1782910205.674679</v>
+        <v>981062145.2280881</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1808660020.310853</v>
+        <v>995229417.1517664</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1835050262.824273</v>
+        <v>1009748889.285225</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1862092856.307287</v>
+        <v>1024627524.8446</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1889799238.365453</v>
+        <v>1039870457.832984</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1918180265.598339</v>
+        <v>1055484617.270248</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1947247676.201279</v>
+        <v>1071476529.372195</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1977011559.978438</v>
+        <v>1087851883.528841</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2007481563.120223</v>
+        <v>1104616433.293695</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2038669696.037221</v>
+        <v>1121776283.630117</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2070584767.292412</v>
+        <v>1139335180.924924</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2103237407.065846</v>
+        <v>1157301117.462417</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2136635279.623405</v>
+        <v>1175677266.008701</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2170789390.15163</v>
+        <v>1194468786.444469</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2205709512.335716</v>
+        <v>1213680978.170111</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2241403287.224948</v>
+        <v>1233318120.08445</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2277879614.951913</v>
+        <v>1253386020.369784</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2315145040.833572</v>
+        <v>1273888029.506766</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2353208636.301135</v>
+        <v>1294829125.019073</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2392076940.697762</v>
+        <v>1316213589.488877</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2431759197.445289</v>
+        <v>1338045683.923884</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2472264234.080392</v>
+        <v>1360329248.09497</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2513597504.932862</v>
+        <v>1383068881.096498</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2555766351.007081</v>
+        <v>1406266938.80144</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2598776944.458457</v>
+        <v>1429931048.731714</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2642636999.108847</v>
+        <v>1454059972.251475</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2687351977.665399</v>
+        <v>1478659644.267247</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2732928182.962785</v>
+        <v>1503734352.662051</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2779372707.22476</v>
+        <v>1529287516.414286</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2826690657.965992</v>
+        <v>1555319316.369725</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2874888999.334057</v>
+        <v>1581837398.735603</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2923972130.632641</v>
+        <v>1608841547.602664</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2973947163.483899</v>
+        <v>1636335612.092755</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3024818475.852039</v>
+        <v>1664322441.55039</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3076593162.681356</v>
+        <v>1692804863.228009</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3129275898.001913</v>
+        <v>1721786880.519662</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3182873502.506265</v>
+        <v>1751271657.360352</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>3237389032.299193</v>
+        <v>1781261874.069904</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>3292829849.153121</v>
+        <v>1811760020.714132</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>3349198778.233536</v>
+        <v>1842769575.933353</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>3406505314.733116</v>
+        <v>1874293631.106422</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>3464752115.305346</v>
+        <v>1906333753.499237</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>3523944763.505775</v>
+        <v>1938893776.461406</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>3584088458.446681</v>
+        <v>1971976858.259439</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>3645186398.388289</v>
+        <v>2005585747.553933</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>3707246010.180952</v>
+        <v>2039721437.309697</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>3770272207.162061</v>
+        <v>2074390171.822093</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>3834270006.515969</v>
+        <v>2109594116.20942</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>3899246229.697186</v>
+        <v>2145334816.447998</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>3965204108.956974</v>
+        <v>2181614439.117108</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>4032150375.274726</v>
+        <v>2218437341.72291</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4100090631.679876</v>
+        <v>2255809291.506183</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4169031720.74929</v>
+        <v>2293732020.003343</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4238977140.065915</v>
+        <v>2332204677.673794</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4309932822.081151</v>
+        <v>2371235414.186449</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>4381905613.343024</v>
+        <v>2410823478.28207</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>4454901261.840425</v>
+        <v>2450978121.557246</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>4528926479.078917</v>
+        <v>2491697294.188005</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>4603988030.699262</v>
+        <v>2532985231.433127</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>4680092723.889654</v>
+        <v>2574847728.635636</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>4757245006.035286</v>
+        <v>2617289584.125147</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>4835453906.423774</v>
+        <v>2660310103.122608</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>4914726026.47049</v>
+        <v>2703917186.874878</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>4995067278.664211</v>
+        <v>2748111032.953104</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5076487998.980486</v>
+        <v>2792898686.700547</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>5158995447.140261</v>
+        <v>2838282306.197723</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5242596311.402805</v>
+        <v>2884269317.063971</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5327296802.956029</v>
+        <v>2930861635.914265</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5413108363.036847</v>
+        <v>2978064546.632772</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5500037896.75355</v>
+        <v>3025879709.480127</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>5588094040.422037</v>
+        <v>3074313702.698458</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>5677285118.480418</v>
+        <v>3123373657.064679</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5767618689.06849</v>
+        <v>3173062703.43598</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5859105631.736363</v>
+        <v>3223386521.112885</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5951756873.971611</v>
+        <v>3274350466.263732</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>6045583567.86296</v>
+        <v>3325958794.584014</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>6140592292.209397</v>
+        <v>3378219563.014239</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>6236798913.991508</v>
+        <v>3431137614.702218</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>6334208576.28723</v>
+        <v>3484717185.537379</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>6432837009.653411</v>
+        <v>3538967559.17553</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>6532691753.570559</v>
+        <v>3593892421.381623</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6633786697.591328</v>
+        <v>3649499179.011297</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>6736136047.917051</v>
+        <v>3705793380.419586</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>6839750676.231864</v>
+        <v>3762784828.058784</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>6944640433.214396</v>
+        <v>3820479309.16955</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7050821009.273866</v>
+        <v>3878883327.146072</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>7158304925.417775</v>
+        <v>3938003782.403981</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>7267108401.804944</v>
+        <v>3997848723.598496</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>7377244426.894254</v>
+        <v>4058425839.481656</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>7488726421.3116</v>
+        <v>4119743378.312464</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>7601570011.974853</v>
+        <v>4181809410.288741</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>7715790599.763545</v>
+        <v>4244629221.834125</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>7831401127.708824</v>
+        <v>4308216311.475629</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>7948420987.377093</v>
+        <v>4372576798.74035</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>8066866060.212383</v>
+        <v>4437722290.017205</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>8186750553.491045</v>
+        <v>4503657438.716722</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>8308093777.200482</v>
+        <v>4570396318.487405</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>8430911510.794392</v>
+        <v>4637943520.95177</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>8555223396.107612</v>
+        <v>4706312674.385463</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>8681045811.891375</v>
+        <v>4775514304.048861</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>8808396839.899406</v>
+        <v>4845553730.710761</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>8937297624.838072</v>
+        <v>4916447577.928213</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>9067762941.817448</v>
+        <v>4988201604.761919</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>9199818588.838844</v>
+        <v>5060828700.413278</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>9333478625.534899</v>
+        <v>5134338684.442429</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>9468766090.590662</v>
+        <v>5208744601.261623</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>9605700924.646345</v>
+        <v>5284053927.285216</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>9715030945.358261</v>
+        <v>5344182061.736041</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>9825757324.355959</v>
+        <v>5405079598.456322</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>9937884194.879566</v>
+        <v>5466746863.007719</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>10051433805.79309</v>
+        <v>5529196456.441614</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>10166425000.98166</v>
+        <v>5592439521.510073</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>10282874072.80782</v>
+        <v>5656483369.380851</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>10400794637.07828</v>
+        <v>5721337680.194575</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>10520210217.93771</v>
+        <v>5787012118.652236</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>10641132945.15104</v>
+        <v>5853515456.892202</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>10763583909.9003</v>
+        <v>5920861749.617159</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>10887580570.57588</v>
+        <v>5989054283.031222</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>11013139031.70308</v>
+        <v>6058108250.571251</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>11140278563.64716</v>
+        <v>6128032908.745522</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>11269018417.54694</v>
+        <v>6198836323.569921</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>11399375365.50887</v>
+        <v>6270526412.544283</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>11531367078.29554</v>
+        <v>6343115826.376721</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>11665011702.57069</v>
+        <v>6416614618.676226</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>11800326843.66115</v>
+        <v>6491032548.465569</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>11937330472.71665</v>
+        <v>6566380091.218178</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>12076040338.2498</v>
+        <v>6642663677.49027</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>12216473613.19875</v>
+        <v>6719896395.981806</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>12358649257.03135</v>
+        <v>6798085546.549574</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>12502582078.07193</v>
+        <v>6877242265.569063</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>12648290474.27298</v>
+        <v>6957374621.969212</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>12795790555.16594</v>
+        <v>7038489961.178029</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>12945094036.76513</v>
+        <v>7120601919.549977</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>13096218672.38558</v>
+        <v>7203714354.379213</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>13249182993.25442</v>
+        <v>7287835339.590131</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>13403996247.11726</v>
+        <v>7372976888.383008</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>13560674155.53918</v>
+        <v>7459141573.714394</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>13719233773.76266</v>
+        <v>7546340771.915466</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>13879681901.87575</v>
+        <v>7634581069.468246</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>14042033774.2118</v>
+        <v>7723866127.830605</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>14206299344.65928</v>
+        <v>7814202762.658506</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>14372489569.83554</v>
+        <v>7905600248.193507</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>14540611535.25066</v>
+        <v>7998060546.989587</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>14710677023.65932</v>
+        <v>8091590004.569271</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>14882692563.8123</v>
+        <v>8186189897.70748</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>15056665146.73859</v>
+        <v>8281866602.281654</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>15232597227.52981</v>
+        <v>8378625230.314937</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>15410496587.14927</v>
+        <v>8476464085.69593</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>15590363561.45938</v>
+        <v>8575385778.941202</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>15772203354.62319</v>
+        <v>8675392419.380474</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>15956012226.38323</v>
+        <v>8776481486.215332</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>16141789906.35766</v>
+        <v>8878656440.774002</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>16329539764.31412</v>
+        <v>8981913330.475576</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>16519253619.19573</v>
+        <v>9086250964.502783</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>16710924058.27015</v>
+        <v>9191666651.266882</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>16904547049.23925</v>
+        <v>9298154677.942019</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>17100117932.50839</v>
+        <v>9405712146.704447</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>17297620439.22309</v>
+        <v>9514333151.879324</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>17497048318.44896</v>
+        <v>9624012931.955585</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>17698385791.42813</v>
+        <v>9734740485.309671</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>17901618566.13439</v>
+        <v>9846513460.656092</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>18106725030.0566</v>
+        <v>9959316450.14024</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>18302621932.03304</v>
+        <v>10067053787.78605</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>18500258773.75232</v>
+        <v>10175748793.97397</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>18699614774.8926</v>
+        <v>10285389911.66008</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>18900661961.21976</v>
+        <v>10395960372.80901</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>19103379953.75732</v>
+        <v>10507449164.32843</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>19307737078.10009</v>
+        <v>10619840026.88134</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>19513706833.23155</v>
+        <v>10733118141.56728</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>19721255552.66724</v>
+        <v>10847265788.88978</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>19930350023.56545</v>
+        <v>10962261481.93231</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>20140954879.97605</v>
+        <v>11078089501.37684</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>20353035289.64243</v>
+        <v>11194728926.40478</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>20566549505.6766</v>
+        <v>11312157308.34728</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>20781458642.23322</v>
+        <v>11430353105.86365</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>20997720627.22359</v>
+        <v>11549291206.23912</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>21215287329.95247</v>
+        <v>11668948328.70177</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>21422041281.63069</v>
+        <v>11782657019.4712</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>21629927919.22651</v>
+        <v>11896988136.81626</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>21838893598.56652</v>
+        <v>12011913061.26064</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>22049331510.44092</v>
+        <v>12127642264.332</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>22260735955.78144</v>
+        <v>12243902333.14274</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>22473051721.58791</v>
+        <v>12360664168.58438</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>22686222265.22883</v>
+        <v>12477895825.0625</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>22900191858.39236</v>
+        <v>12595567576.58309</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>23114902554.6407</v>
+        <v>12713648106.79554</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>23330295794.20359</v>
+        <v>12832101350.75717</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>23575840828.542</v>
+        <v>12967139560.57389</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>23822074352.03366</v>
+        <v>13102556166.16891</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>24068927004.59596</v>
+        <v>13238312915.58908</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>24316328096.07731</v>
+        <v>13374370580.88777</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>24564206661.18985</v>
+        <v>13510692538.40769</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>24812489421.81679</v>
+        <v>13807347622.96762</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>25060350842.52387</v>
+        <v>14104339839.17851</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>25299610555.23189</v>
+        <v>14396989088.00201</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>25509403396.09836</v>
+        <v>14673205021.38575</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>25665347386.76749</v>
+        <v>14918499129.05898</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>25769686304.23574</v>
+        <v>15141138789.8849</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>25797640476.52405</v>
+        <v>15316860427.53446</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>25755269057.30241</v>
+        <v>15447794353.52636</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>25655458414.52686</v>
+        <v>15540431827.56956</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>25513903157.33206</v>
+        <v>15603353740.11725</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>25346203088.97377</v>
+        <v>15645495615.3643</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>25166168024.46939</v>
+        <v>15675064746.45508</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>24985066721.44946</v>
+        <v>15699004462.07961</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>24811494059.42924</v>
+        <v>15722820540.99891</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>24651572531.87463</v>
+        <v>15750636627.42633</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>24331656271.67204</v>
+        <v>15607681574.0911</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>24040232924.3254</v>
+        <v>15481997992.14034</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>23777736793.95078</v>
+        <v>15374071749.84173</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>23543576516.73244</v>
+        <v>15283702587.71323</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>23336463168.14186</v>
+        <v>15210220567.77956</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>23154664943.51215</v>
+        <v>15152646699.16895</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>22996212754.72939</v>
+        <v>15109826605.0963</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>22859025568.62587</v>
+        <v>15080513201.61075</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>22741020942.43136</v>
+        <v>15063445516.97551</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>22640176345.07122</v>
+        <v>15057386470.68175</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>22550682608.21131</v>
+        <v>15057258840.48422</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>22470321568.19096</v>
+        <v>15061521745.08644</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>22398252617.4468</v>
+        <v>15069957877.36235</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>22333422167.88255</v>
+        <v>15082071332.40737</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>22274864321.90269</v>
+        <v>15097403546.24317</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>22221703988.68779</v>
+        <v>15115530622.42037</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>22170709704.61701</v>
+        <v>15134380998.64226</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>22094901935.56551</v>
+        <v>15135271000.22017</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>21927487226.98531</v>
+        <v>15071436917.74121</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>21592693292.03848</v>
+        <v>14889258195.69678</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>21043510797.90392</v>
+        <v>14554775996.47788</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>20274306958.00422</v>
+        <v>14062875003.0482</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>19313058578.54102</v>
+        <v>13432177339.62657</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>18206691141.65997</v>
+        <v>12694921428.82236</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>17007898113.11482</v>
+        <v>11887759718.40892</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>15766310855.23936</v>
+        <v>11045507132.39562</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>14523821611.24232</v>
+        <v>10197781640.713</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>13312954044.77292</v>
+        <v>9367778008.149925</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>12157065889.6186</v>
+        <v>8572347607.812117</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>11071494117.03185</v>
+        <v>7822746036.322993</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>10065044772.54815</v>
+        <v>7125638868.182547</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>9141494249.225052</v>
+        <v>6484148933.149104</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>8300928128.426211</v>
+        <v>5898759077.360373</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>7540855422.019119</v>
+        <v>5368103457.875172</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>6857094791.94348</v>
+        <v>4889591287.611937</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>6244459404.577703</v>
+        <v>4459869397.707337</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>5697243639.581085</v>
+        <v>4075181932.995501</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>5209587339.331733</v>
+        <v>3731628227.532086</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>4775715548.183039</v>
+        <v>3425330198.00393</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>4390103636.91728</v>
+        <v>3152558406.065506</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>4047568838.07073</v>
+        <v>2909793612.82654</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>3743324167.516074</v>
+        <v>2693776447.493799</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>3473007116.701972</v>
+        <v>2501521555.293122</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>3232671508.255742</v>
+        <v>2330325657.635381</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>3018775251.057388</v>
+        <v>2177753947.11865</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>2828158420.635546</v>
+        <v>2041627205.516298</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>2658014606.637844</v>
+        <v>1920004758.768454</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>2505858150.031109</v>
+        <v>1811168698.996255</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>2369500766.262842</v>
+        <v>1713596882.031809</v>
       </c>
     </row>
     <row r="452">
